--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,22 +639,124 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="10" t="s">
-        <v>10</v>
+      <c r="A8" s="6">
+        <v>44032</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12050</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="1">D8*E8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="9">
-        <f>SUM(G2:G7)</f>
-        <v>3367.5</v>
+        <f>SUM(F8,F9)</f>
+        <v>1700.85</v>
       </c>
       <c r="H8" s="9">
-        <f>SUM(H2:H7)</f>
-        <v>3367.5</v>
+        <v>1700.85</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>667</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>1700.85</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44036</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13172</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C8)</f>
+        <v>1122</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>5284.62</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>5284.62</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5284.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G2:G11)</f>
+        <v>10352.970000000001</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H2:H11)</f>
+        <v>10352.970000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,14 +649,14 @@
         <v>12050</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" ref="D8:D13" si="1">SUM(C8,-C6)</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="1">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -676,14 +676,14 @@
         <v>8324</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="1"/>
         <v>667</v>
       </c>
       <c r="E9" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1700.85</v>
       </c>
       <c r="G9" s="9"/>
@@ -700,14 +700,14 @@
         <v>13172</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="E10" s="4">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
         <v>5284.62</v>
       </c>
       <c r="G10" s="9">
@@ -727,36 +727,189 @@
         <v>8324</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
-        <v>10</v>
+      <c r="A12" s="6">
+        <v>44048</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13372</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F15" si="4">D12*E12</f>
+        <v>942</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G2:G11)</f>
-        <v>10352.970000000001</v>
+        <f>SUM(F12,F13)</f>
+        <v>942</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H2:H11)</f>
-        <v>10352.970000000001</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44054</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13572</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C12)</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>942</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>942</v>
+      </c>
+      <c r="H14" s="9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C11)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44062</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13672</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C14)</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>471</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>471</v>
+      </c>
+      <c r="H16" s="9">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C13)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>11294.970000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H13)</f>
+        <v>11294.970000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -461,10 +461,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,22 +894,124 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="10" t="s">
-        <v>10</v>
+      <c r="A18" s="6">
+        <v>44078</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13772</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>471</v>
       </c>
       <c r="G18" s="9">
-        <f>SUM(G2:G13)</f>
-        <v>11294.970000000001</v>
+        <f>SUM(F18,F19)</f>
+        <v>471</v>
       </c>
       <c r="H18" s="9">
-        <f>SUM(H2:H13)</f>
-        <v>11294.970000000001</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(C19,-C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44085</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13872</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C20,-C18)</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <v>471</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>471</v>
+      </c>
+      <c r="H20" s="9">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(C21,-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>13178.970000000001</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>13178.970000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -130,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,7 +150,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -996,22 +992,208 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="10" t="s">
-        <v>10</v>
+      <c r="A22" s="6">
+        <v>44179</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14072</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(C22,-C20)</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
+        <v>942</v>
       </c>
       <c r="G22" s="9">
-        <f>SUM(G2:G19)</f>
-        <v>13178.970000000001</v>
+        <f>SUM(F22,F23)</f>
+        <v>942</v>
       </c>
       <c r="H22" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>13178.970000000001</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(C23,-C19)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>44190</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14272</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM(C24,-C22)</f>
+        <v>200</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
+        <v>942</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>942</v>
+      </c>
+      <c r="H24" s="9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM(C25,-C21)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44193</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14472</v>
+      </c>
+      <c r="D26" s="2">
+        <f>SUM(C26,-C24)</f>
+        <v>200</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
+        <v>942</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>942</v>
+      </c>
+      <c r="H26" s="9">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D27" s="2">
+        <f>SUM(C27,-C23)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>44194</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15272</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM(C28,-C26)</f>
+        <v>800</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
+        <v>3768</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>3768</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(C29,-C25)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -127,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -150,6 +156,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,20 +512,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>43748</v>
+      <c r="A2" s="10">
+        <v>44264</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>11300</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+        <v>16472</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>400</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1884</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(F2,F3)</f>
+        <v>1884</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1884</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -526,41 +546,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>7657</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+        <v>8324</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43774</v>
+        <v>44264</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11550</v>
+        <v>16072</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
-        <v>250</v>
+        <f>SUM(C4,-C6)</f>
+        <v>400</v>
       </c>
       <c r="E4" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
-        <v>1122.5</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1884</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>1122.5</v>
+        <v>1884</v>
       </c>
       <c r="H4" s="9">
-        <v>1122.5</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,16 +597,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>7657</v>
+        <v>8324</v>
       </c>
       <c r="D5" s="2">
+        <f>SUM(C5,-C7)</f>
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="9"/>
@@ -586,31 +615,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43829</v>
+        <v>44235</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>12050</v>
+        <v>15672</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C4)</f>
-        <v>500</v>
+        <f>SUM(C6,-C8)</f>
+        <v>400</v>
       </c>
       <c r="E6" s="4">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2245</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>1884</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>2245</v>
+        <v>1884</v>
       </c>
       <c r="H6" s="9">
-        <v>2245</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,16 +648,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7657</v>
+        <v>8324</v>
       </c>
       <c r="D7" s="2">
+        <f>SUM(C7,-C9)</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
@@ -636,32 +666,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44032</v>
+        <v>44194</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12050</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D13" si="1">SUM(C8,-C6)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <f>SUM(F8,F9)</f>
-        <v>1700.85</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1700.85</v>
-      </c>
+        <v>15272</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -671,529 +688,11 @@
       <c r="C9" s="2">
         <v>8324</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>667</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>1700.85</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44036</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13172</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>1122</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
-        <v>5284.62</v>
-      </c>
-      <c r="G10" s="9">
-        <f>SUM(F10,F11)</f>
-        <v>5284.62</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5284.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44048</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>13372</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F15" si="4">D12*E12</f>
-        <v>942</v>
-      </c>
-      <c r="G12" s="9">
-        <f>SUM(F12,F13)</f>
-        <v>942</v>
-      </c>
-      <c r="H12" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44054</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13572</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
-        <v>200</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="4"/>
-        <v>942</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM(F14,F15)</f>
-        <v>942</v>
-      </c>
-      <c r="H14" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D15" s="2">
-        <f>SUM(C15,-C11)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44062</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13672</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
-        <v>100</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
-        <v>471</v>
-      </c>
-      <c r="G16" s="9">
-        <f>SUM(F16,F17)</f>
-        <v>471</v>
-      </c>
-      <c r="H16" s="9">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D17" s="2">
-        <f>SUM(C17,-C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>44078</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13772</v>
-      </c>
-      <c r="D18" s="2">
-        <f>SUM(C18,-C16)</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
-        <v>471</v>
-      </c>
-      <c r="G18" s="9">
-        <f>SUM(F18,F19)</f>
-        <v>471</v>
-      </c>
-      <c r="H18" s="9">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D19" s="2">
-        <f>SUM(C19,-C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>44085</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13872</v>
-      </c>
-      <c r="D20" s="2">
-        <f>SUM(C20,-C18)</f>
-        <v>100</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
-        <v>471</v>
-      </c>
-      <c r="G20" s="9">
-        <f>SUM(F20,F21)</f>
-        <v>471</v>
-      </c>
-      <c r="H20" s="9">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D21" s="2">
-        <f>SUM(C21,-C17)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>44179</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>14072</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(C22,-C20)</f>
-        <v>200</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
-        <v>942</v>
-      </c>
-      <c r="G22" s="9">
-        <f>SUM(F22,F23)</f>
-        <v>942</v>
-      </c>
-      <c r="H22" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D23" s="2">
-        <f>SUM(C23,-C19)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>44190</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>14272</v>
-      </c>
-      <c r="D24" s="2">
-        <f>SUM(C24,-C22)</f>
-        <v>200</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
-        <v>942</v>
-      </c>
-      <c r="G24" s="9">
-        <f>SUM(F24,F25)</f>
-        <v>942</v>
-      </c>
-      <c r="H24" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D25" s="2">
-        <f>SUM(C25,-C21)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>44193</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>14472</v>
-      </c>
-      <c r="D26" s="2">
-        <f>SUM(C26,-C24)</f>
-        <v>200</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" ref="F26:F27" si="10">D26*E26</f>
-        <v>942</v>
-      </c>
-      <c r="G26" s="9">
-        <f>SUM(F26,F27)</f>
-        <v>942</v>
-      </c>
-      <c r="H26" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D27" s="2">
-        <f>SUM(C27,-C23)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>44194</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>15272</v>
-      </c>
-      <c r="D28" s="2">
-        <f>SUM(C28,-C26)</f>
-        <v>800</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
-        <v>3768</v>
-      </c>
-      <c r="G28" s="9">
-        <f>SUM(F28,F29)</f>
-        <v>3768</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8324</v>
-      </c>
-      <c r="D29" s="2">
-        <f>SUM(C29,-C25)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,7 +79,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +163,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,23 +520,23 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44264</v>
+        <v>44322</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16472</v>
+        <v>16872</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
         <v>400</v>
       </c>
       <c r="E2" s="4">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>1884</v>
       </c>
       <c r="G2" s="9">
@@ -549,38 +556,38 @@
         <v>8324</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="11">
         <v>44264</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>16072</v>
+        <v>16472</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E4" s="4">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>1884</v>
       </c>
       <c r="G4" s="9">
@@ -600,14 +607,14 @@
         <v>8324</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="9"/>
@@ -615,23 +622,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44235</v>
+        <v>44264</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>15672</v>
+        <v>16072</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C8)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E6" s="4">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
         <v>1884</v>
       </c>
       <c r="G6" s="9">
@@ -651,14 +658,14 @@
         <v>8324</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
@@ -666,19 +673,32 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44194</v>
+        <v>44235</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>15272</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+        <v>15672</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>1884</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>1884</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1884</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -688,11 +708,49 @@
       <c r="C9" s="2">
         <v>8324</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>44194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15272</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,31 +520,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44322</v>
+        <v>44461</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>16872</v>
+        <v>17272</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
         <v>400</v>
       </c>
       <c r="E2" s="4">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1884</v>
+        <v>1984</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>1884</v>
+        <v>1984</v>
       </c>
       <c r="H2" s="9">
-        <v>1884</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
@@ -571,23 +571,23 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>44264</v>
+        <v>44322</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>16472</v>
+        <v>16872</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
         <v>400</v>
       </c>
       <c r="E4" s="4">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
         <v>1884</v>
       </c>
       <c r="G4" s="9">
@@ -607,38 +607,38 @@
         <v>8324</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="11">
         <v>44264</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>16072</v>
+        <v>16472</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="E6" s="4">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
         <v>1884</v>
       </c>
       <c r="G6" s="9">
@@ -658,14 +658,14 @@
         <v>8324</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
@@ -673,23 +673,23 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44235</v>
+        <v>44264</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>15672</v>
+        <v>16072</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="E8" s="4">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
         <v>1884</v>
       </c>
       <c r="G8" s="9">
@@ -709,14 +709,14 @@
         <v>8324</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
@@ -724,19 +724,32 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44194</v>
+        <v>44235</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>15272</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+        <v>15672</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <v>1884</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>1884</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1884</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -746,11 +759,49 @@
       <c r="C11" s="2">
         <v>8324</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44194</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15272</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/288ee.xlsx
+++ b/sputnik/personal/ee/288ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,31 +520,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44461</v>
+        <v>44536</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>17272</v>
+        <v>17672</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="G2" s="9">
         <f>SUM(F2,F3)</f>
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="H2" s="9">
-        <v>1984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,31 +571,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>44322</v>
+        <v>44516</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>16872</v>
+        <v>17472</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>400</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>200</v>
       </c>
       <c r="E4" s="4">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1884</v>
+        <v>992</v>
       </c>
       <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
-        <v>1884</v>
+        <v>992</v>
       </c>
       <c r="H4" s="9">
-        <v>1884</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
@@ -622,31 +622,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>44264</v>
+        <v>44461</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>16472</v>
+        <v>17272</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
         <v>400</v>
       </c>
       <c r="E6" s="4">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>1884</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1984</v>
       </c>
       <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
-        <v>1884</v>
+        <v>1984</v>
       </c>
       <c r="H6" s="9">
-        <v>1884</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,38 +658,38 @@
         <v>8324</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44264</v>
+      <c r="A8" s="11">
+        <v>44322</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>16072</v>
+        <v>16872</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
         <v>400</v>
       </c>
       <c r="E8" s="4">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
         <v>1884</v>
       </c>
       <c r="G8" s="9">
@@ -709,38 +709,38 @@
         <v>8324</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44235</v>
+      <c r="A10" s="11">
+        <v>44264</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>15672</v>
+        <v>16472</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="E10" s="4">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="6">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
         <v>1884</v>
       </c>
       <c r="G10" s="9">
@@ -760,14 +760,14 @@
         <v>8324</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
@@ -775,19 +775,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44194</v>
+        <v>44264</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>15272</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+        <v>16072</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1884</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>1884</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1884</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -797,11 +810,100 @@
       <c r="C13" s="2">
         <v>8324</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44235</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15672</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>1884</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>1884</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>44194</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15272</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8324</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
